--- a/FISICHELLA_Morgane_2_plan_test_032023.xlsx
+++ b/FISICHELLA_Morgane_2_plan_test_032023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morganefisichella/Documents/GitHub/KANAP_P5/P5-Dev-Web-Kanap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF6AD582-47CD-9A44-9A3B-EE741DC5EC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F287FE7-61B7-464F-AA48-D8DA8AD71025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,12 +58,6 @@
     <t>product.js</t>
   </si>
   <si>
-    <t>8 à 10</t>
-  </si>
-  <si>
-    <t>14 à 51</t>
-  </si>
-  <si>
     <t>getArticle</t>
   </si>
   <si>
@@ -82,36 +76,12 @@
     <t>savePanier</t>
   </si>
   <si>
-    <t>17 à 32</t>
-  </si>
-  <si>
-    <t>37 à 62</t>
-  </si>
-  <si>
-    <t>68 à 92</t>
-  </si>
-  <si>
-    <t>98 à 104</t>
-  </si>
-  <si>
-    <t>110 à 115</t>
-  </si>
-  <si>
-    <t>120 à 121</t>
-  </si>
-  <si>
     <t>cart.js</t>
   </si>
   <si>
     <t>getApi</t>
   </si>
   <si>
-    <t>14 à 16</t>
-  </si>
-  <si>
-    <t>20 à 27</t>
-  </si>
-  <si>
     <t>totalQuantity</t>
   </si>
   <si>
@@ -136,24 +106,6 @@
     <t>3 à 17</t>
   </si>
   <si>
-    <t>46 à 58</t>
-  </si>
-  <si>
-    <t>66 à 151</t>
-  </si>
-  <si>
-    <t>163 à 170</t>
-  </si>
-  <si>
-    <t>174 à 176</t>
-  </si>
-  <si>
-    <t>180 à 196</t>
-  </si>
-  <si>
-    <t>203 à 219</t>
-  </si>
-  <si>
     <t>298 à 360</t>
   </si>
   <si>
@@ -310,9 +262,6 @@
     <t>L'id de commande n'a pas bien été récupéré et ne remonte pas</t>
   </si>
   <si>
-    <t>226 à 293</t>
-  </si>
-  <si>
     <t>Fonction de validation des champs dans du formulaire selon les regexp définis au début du document</t>
   </si>
   <si>
@@ -320,6 +269,57 @@
   </si>
   <si>
     <t>Cliquer sur "Commander" sans remplir le formulaire et voir les messages d'erreur qui s'affichent.</t>
+  </si>
+  <si>
+    <t>12 à 18</t>
+  </si>
+  <si>
+    <t>22 à 66</t>
+  </si>
+  <si>
+    <t>19 à 45</t>
+  </si>
+  <si>
+    <t>49 à 77</t>
+  </si>
+  <si>
+    <t>80 à 108</t>
+  </si>
+  <si>
+    <t>112 à 121</t>
+  </si>
+  <si>
+    <t>124 à 131</t>
+  </si>
+  <si>
+    <t>134 à 136</t>
+  </si>
+  <si>
+    <t>16 à 19</t>
+  </si>
+  <si>
+    <t>25 à 32</t>
+  </si>
+  <si>
+    <t>52 à 67</t>
+  </si>
+  <si>
+    <t>73 à 166</t>
+  </si>
+  <si>
+    <t>169 à 177</t>
+  </si>
+  <si>
+    <t>180 à 183</t>
+  </si>
+  <si>
+    <t>186 à 207</t>
+  </si>
+  <si>
+    <t>210 à 229</t>
+  </si>
+  <si>
+    <t>233 à 302</t>
   </si>
 </sst>
 </file>
@@ -644,8 +644,8 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -703,24 +703,24 @@
       <c r="D2" s="4"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="70" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -728,19 +728,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -748,19 +748,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -768,19 +768,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -788,19 +788,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -808,19 +808,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -828,19 +828,19 @@
         <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -848,239 +848,239 @@
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="56" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="42" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="56" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">

--- a/FISICHELLA_Morgane_2_plan_test_032023.xlsx
+++ b/FISICHELLA_Morgane_2_plan_test_032023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morganefisichella/Documents/GitHub/KANAP_P5/P5-Dev-Web-Kanap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F287FE7-61B7-464F-AA48-D8DA8AD71025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4166904-9BA5-5B4D-A365-F2DCB1C9F9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,12 +103,6 @@
     <t>main</t>
   </si>
   <si>
-    <t>3 à 17</t>
-  </si>
-  <si>
-    <t>298 à 360</t>
-  </si>
-  <si>
     <t>Affichage de ces informations sur la page via le DOM</t>
   </si>
   <si>
@@ -320,6 +314,12 @@
   </si>
   <si>
     <t>233 à 302</t>
+  </si>
+  <si>
+    <t>305 à 369</t>
+  </si>
+  <si>
+    <t>2 à 16</t>
   </si>
 </sst>
 </file>
@@ -644,8 +644,8 @@
   <dimension ref="A1:Z994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -708,19 +708,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -728,19 +728,19 @@
         <v>6</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -748,19 +748,19 @@
         <v>10</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -768,19 +768,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -788,19 +788,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -808,19 +808,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -828,19 +828,19 @@
         <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -848,19 +848,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -868,19 +868,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -888,19 +888,19 @@
         <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -908,19 +908,19 @@
         <v>17</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -928,19 +928,19 @@
         <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="42" x14ac:dyDescent="0.15">
@@ -948,19 +948,19 @@
         <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="28" x14ac:dyDescent="0.15">
@@ -968,19 +968,19 @@
         <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.15">
@@ -988,19 +988,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="56" x14ac:dyDescent="0.15">
@@ -1008,19 +1008,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.15">
@@ -1028,39 +1028,39 @@
         <v>17</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1068,19 +1068,19 @@
         <v>24</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
